--- a/biology/Zoologie/Fjord_de_l'ouest/Fjord_de_l'ouest.xlsx
+++ b/biology/Zoologie/Fjord_de_l'ouest/Fjord_de_l'ouest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fjord_de_l%27ouest</t>
+          <t>Fjord_de_l'ouest</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La fjord de l'ouest est une race bovine norvégienne. En norvégien, elle se nomme Vestlandsk fjordfe.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fjord_de_l%27ouest</t>
+          <t>Fjord_de_l'ouest</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle appartient au rameau des races nordiques. Elle est élevée dans l'ouest de la Norvège, dans une zone de fjords, le long de la côte ouest. Elle a été créée au XIXe siècle à partir d'une population hétérogène autochtone. L'effectif en 2001 était de 530 femelles et 30 mâles[1]. 100 % de femelles reproduisent en race pure. Elle bénéficie d'un programme de préservation. En 1995, 15 300 paillettes de semence de 20 taureaux avaient été congelées[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle appartient au rameau des races nordiques. Elle est élevée dans l'ouest de la Norvège, dans une zone de fjords, le long de la côte ouest. Elle a été créée au XIXe siècle à partir d'une population hétérogène autochtone. L'effectif en 2001 était de 530 femelles et 30 mâles. 100 % de femelles reproduisent en race pure. Elle bénéficie d'un programme de préservation. En 1995, 15 300 paillettes de semence de 20 taureaux avaient été congelées. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fjord_de_l%27ouest</t>
+          <t>Fjord_de_l'ouest</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle porte une robe variable, allant du blanc uni au rouge, gris, noir ou bringué et même pie rouge ou noir. Les muqueuses sont noires. 40 % portent des cornes. C'est une race de taille moyenne. La vache mesure 120 cm au garrot et pèse 425 kg. C'est la plus petite race norvégienne.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fjord_de_l%27ouest</t>
+          <t>Fjord_de_l'ouest</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est classée laitière. Elle produit environ 4000 kg de lait par lactation à 4 % de matière grasse, production honorable rapportée à sa taille. Elle est secondairement utilisée pour l'entretien de l'espace rural : elle nettoie les zones où d'autres races souffriraient de l'environnement humide et froid. 
 </t>
